--- a/others_data/Sara_data.xlsx
+++ b/others_data/Sara_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/others_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB3ABBE-22DC-B74B-87AD-B00ECBD3747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFB073-6509-9E40-B00C-A1DE9EC4488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,9 +352,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -613,9 +610,9 @@
   <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="31" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="31" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -624,7 +621,7 @@
     <col min="10" max="10" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
@@ -653,7 +650,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
@@ -684,7 +681,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
@@ -714,7 +711,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
@@ -745,7 +742,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
@@ -776,7 +773,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
@@ -807,7 +804,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
@@ -838,7 +835,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
@@ -866,7 +863,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="9" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
@@ -894,7 +891,7 @@
         <v>1533.3333333333335</v>
       </c>
     </row>
-    <row r="10" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
@@ -922,7 +919,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -950,7 +947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
@@ -978,7 +975,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
@@ -1006,8 +1003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="3:13" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
@@ -1033,7 +1029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1051,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1073,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1095,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1117,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1139,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C21" s="15" t="s">
         <v>13</v>
       </c>
@@ -1165,7 +1161,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C22" s="15" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1183,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1205,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C24" s="15" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1227,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C25" s="15" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1249,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C29" s="17" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1378,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C30" s="17" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1418,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -2559,8 +2555,8 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="24">
+    <row r="65" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="21">
         <v>45431</v>
       </c>
       <c r="B65" s="19">
@@ -2588,8 +2584,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="24">
+    <row r="66" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21">
         <v>45431</v>
       </c>
       <c r="B66" s="19">
@@ -2614,8 +2610,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="24">
+    <row r="67" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="21">
         <v>45431</v>
       </c>
       <c r="B67" s="19">
@@ -2640,102 +2636,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="21">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="20">
         <v>45431</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="23">
-        <v>10</v>
-      </c>
-      <c r="E68" s="23">
-        <v>100</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="21">
+      <c r="D68" s="1">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1">
+        <v>100</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="20">
         <v>45431</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="23">
-        <v>10</v>
-      </c>
-      <c r="E69" s="23">
-        <v>100</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="23">
+      <c r="D69" s="1">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1">
+        <v>100</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1">
         <v>23</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="1">
         <v>2</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69">
         <f>G69*10</f>
         <v>230</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69">
         <f>I69*100</f>
         <v>23000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="21">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="20">
         <v>45431</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70">
         <v>6</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="23">
-        <v>10</v>
-      </c>
-      <c r="E70" s="23">
-        <v>100</v>
-      </c>
-      <c r="F70" s="23" t="s">
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1">
+        <v>100</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="1">
         <v>65</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="1">
         <v>3</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70">
         <f>G70*10</f>
         <v>650</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70">
         <f>I70*100</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="24">
+    <row r="71" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="21">
         <v>45438</v>
       </c>
       <c r="B71" s="19">
@@ -2760,8 +2756,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="24">
+    <row r="72" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="21">
         <v>45438</v>
       </c>
       <c r="B72" s="19">
@@ -2786,8 +2782,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="24">
+    <row r="73" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
         <v>45438</v>
       </c>
       <c r="B73" s="19">
